--- a/__repository/template_export/template-export-masterpo.xlsx
+++ b/__repository/template_export/template-export-masterpo.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__www\public_codeigniter\nokia_poin\__repository\template_export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nokia\__repository\template_export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,17 +25,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>REPORT MASTER PROGRESS PO</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>TEMPLATE UPLOAD MASTER PO</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>phasecode</t>
+  </si>
+  <si>
+    <t>phaseyear</t>
+  </si>
+  <si>
+    <t>phasename</t>
+  </si>
+  <si>
+    <t>potype</t>
+  </si>
+  <si>
+    <t>pono</t>
+  </si>
+  <si>
+    <t>projectname</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>basiccontract</t>
+  </si>
+  <si>
+    <t>podate</t>
+  </si>
+  <si>
+    <t>poreceived</t>
+  </si>
+  <si>
+    <t>podelivery</t>
+  </si>
+  <si>
+    <t>revisionno</t>
+  </si>
+  <si>
+    <t>pogrossidr</t>
+  </si>
+  <si>
+    <t>ponettidr</t>
+  </si>
+  <si>
+    <t>jisdorrate</t>
+  </si>
+  <si>
+    <t>pogrossusd</t>
+  </si>
+  <si>
+    <t>ponettusd</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>updateby</t>
+  </si>
+  <si>
+    <t>updateat</t>
+  </si>
+  <si>
+    <t>file name</t>
+  </si>
+  <si>
+    <t>1. HW</t>
+  </si>
+  <si>
+    <t>2. SW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -43,22 +141,63 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Adobe Gothic Std B"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -66,23 +205,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Accent6" xfId="2" builtinId="49"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -93,77 +302,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2276475" cy="942975"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 3" descr="NOKIA_LOGO_RGB_MR.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2276475" cy="942975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>309563</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1809750" cy="933450"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4" descr="image001"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5186363" y="9525"/>
-          <a:ext cx="1809750" cy="933450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -429,120 +567,754 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>SUBTOTAL(3,A6:A1000)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f>SUBTOTAL(9,Q6:Q1000)</f>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f>SUBTOTAL(9,R6:R1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="9"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="9"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="9"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="9"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="9"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="9"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="9"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="9"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="9"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="9"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="9"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="9"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="9"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="9"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="9"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="9"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="9"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="9"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="9"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="9"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="9"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="9"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="9"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L7"/>
+    <mergeCell ref="A1:E2"/>
   </mergeCells>
+  <conditionalFormatting sqref="F6:F1000">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"1. HW"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <f>SUMIF(Sheet1!F6:F100,Sheet4!B3,Sheet1!N6:N100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <f>SUMIF(Sheet1!F7:F101,Sheet4!B4,Sheet1!N7:N101)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>